--- a/app/src/main/assets/Physical Education 1.xlsx
+++ b/app/src/main/assets/Physical Education 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE708961-5664-411E-AF06-712A2AA70E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE3E18E-4A67-4836-84FD-2F486EB37E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="120">
   <si>
     <t>It is defined as the capacity to keep going with prolonged low-intensity physical activities and delaying the onset of fatigue.</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Physical Fitness and Conditioning</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,7 +723,7 @@
     <col min="6" max="6" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -765,8 +771,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -788,8 +797,11 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -811,8 +823,11 @@
       <c r="G4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -834,8 +849,11 @@
       <c r="G5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -857,8 +875,11 @@
       <c r="G6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -880,8 +901,11 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -903,8 +927,11 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -926,8 +953,11 @@
       <c r="G9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -949,8 +979,11 @@
       <c r="G10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -972,8 +1005,11 @@
       <c r="G11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -995,8 +1031,11 @@
       <c r="G12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1018,8 +1057,11 @@
       <c r="G13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -1041,8 +1083,11 @@
       <c r="G14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -1064,8 +1109,11 @@
       <c r="G15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1087,8 +1135,11 @@
       <c r="G16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -1109,6 +1160,9 @@
       </c>
       <c r="G17" t="s">
         <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1118,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6E9A3D-D218-45E2-9BF4-83E4F0B93712}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1185,7 @@
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1141,8 +1195,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1152,8 +1209,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1163,8 +1223,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1174,8 +1237,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -1185,8 +1251,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1196,8 +1265,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -1207,8 +1279,11 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -1218,8 +1293,11 @@
       <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -1229,8 +1307,11 @@
       <c r="C9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1240,8 +1321,11 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1251,8 +1335,11 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -1262,8 +1349,11 @@
       <c r="C12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1273,8 +1363,11 @@
       <c r="C13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -1284,8 +1377,11 @@
       <c r="C14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -1295,8 +1391,11 @@
       <c r="C15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1306,8 +1405,11 @@
       <c r="C16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -1317,8 +1419,11 @@
       <c r="C17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -1328,8 +1433,11 @@
       <c r="C18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1338,6 +1446,9 @@
       </c>
       <c r="C19" t="s">
         <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1347,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00289C7-7E91-48C9-A543-86B9C78565C7}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,7 +1471,7 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1370,8 +1481,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -1381,8 +1495,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1392,8 +1509,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1403,8 +1523,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -1414,8 +1537,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1425,8 +1551,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -1436,8 +1565,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -1447,8 +1579,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -1458,8 +1593,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1469,8 +1607,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1480,8 +1621,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -1491,8 +1635,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1502,8 +1649,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -1513,8 +1663,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -1524,8 +1677,11 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1534,6 +1690,9 @@
       </c>
       <c r="C16" t="b">
         <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
